--- a/medicine/Sexualité et sexologie/Breastaurant/Breastaurant.xlsx
+++ b/medicine/Sexualité et sexologie/Breastaurant/Breastaurant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Un breastaurant[1], mot-valise de langue anglaise formé de la contraction de « breast » (en français : « poitrine ») et de « restaurant », est un type de restaurant, apparu aux États-Unis dans les années 1980, dans lequel le personnel servant, exclusivement de sexe féminin et sélectionné selon un type de physique donné, est accoutré de manière à rendre visible ou en partie visible certains de ses attributs physiques jugés sexuellement attirants.
-Plusieurs chaînes de ce type de restaurants existent. La chaîne de restaurants Hooters, fondée dans les années 1980, est pionnière en la matière[1],[2]. Implantée à travers le monde, l'essentiel de ses restaurants se trouve cependant aux États-Unis. Plusieurs autres chaînes sont apparues dans les années 2000 ; on compte parmi celles-ci Tilted Kilt Pub &amp; Eatery (en), Twin Peaks, Bombshells, Bone Daddy's, Bikinis Sports Bar &amp; Grill (en), Show-Me's, Brick House Tavern, Mugs &amp; Jugs et Heart Attack Grill.
+Un breastaurant, mot-valise de langue anglaise formé de la contraction de « breast » (en français : « poitrine ») et de « restaurant », est un type de restaurant, apparu aux États-Unis dans les années 1980, dans lequel le personnel servant, exclusivement de sexe féminin et sélectionné selon un type de physique donné, est accoutré de manière à rendre visible ou en partie visible certains de ses attributs physiques jugés sexuellement attirants.
+Plusieurs chaînes de ce type de restaurants existent. La chaîne de restaurants Hooters, fondée dans les années 1980, est pionnière en la matière,. Implantée à travers le monde, l'essentiel de ses restaurants se trouve cependant aux États-Unis. Plusieurs autres chaînes sont apparues dans les années 2000 ; on compte parmi celles-ci Tilted Kilt Pub &amp; Eatery (en), Twin Peaks, Bombshells, Bone Daddy's, Bikinis Sports Bar &amp; Grill (en), Show-Me's, Brick House Tavern, Mugs &amp; Jugs et Heart Attack Grill.
 </t>
         </is>
       </c>
